--- a/data/panelapp/au/Neurodegenerative disease - adult onset.xlsx
+++ b/data/panelapp/au/Neurodegenerative disease - adult onset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E372"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288698</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288711</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288714</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288716</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288719</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288722</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288725</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288727</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288730</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288733</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288735</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288738</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288741</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288743</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288746</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288749</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288751</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288754</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288757</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288760</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288762</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288765</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288768</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288770</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288773</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288776</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288778</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288781</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288783</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288786</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288789</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288791</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288794</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288797</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288799</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288802</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288804</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288807</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288809</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288812</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288846</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288850</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288853</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288856</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288859</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288862</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288865</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288868</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288871</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288874</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288877</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288880</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288883</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288886</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288889</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288892</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288895</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288898</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288901</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288903</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288906</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288909</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288912</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288914</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288919</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288922</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288925</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288927</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288930</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288933</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288936</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288938</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288941</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288944</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288947</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288949</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288954</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288957</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288960</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288963</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288966</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288969</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288972</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288975</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288978</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288980</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288983</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288986</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288989</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288992</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288994</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.288998</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289002</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289005</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289008</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289011</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289014</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289017</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289019</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289022</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289025</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289028</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289031</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289033</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289036</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289039</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289042</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289045</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289050</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289053</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289056</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289059</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289062</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289064</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289067</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289070</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289073</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289075</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289078</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289081</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289084</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289086</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289090</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289092</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289095</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289098</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289101</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289104</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289109</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289112</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289115</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289118</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289121</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289123</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289126</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289129</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289132</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289135</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289138</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289140</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289143</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289146</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289148</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289151</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289154</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289157</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289160</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289163</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289166</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289168</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289171</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289174</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289177</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289180</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289183</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289186</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289189</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289191</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289194</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289197</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289200</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289202</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289205</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289208</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289211</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289213</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289217</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289219</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289222</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289225</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289228</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289230</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289235</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289238</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289241</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289244</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289247</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289249</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289252</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289255</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289258</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289260</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289263</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289266</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289269</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289271</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289274</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289277</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289280</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289282</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289285</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289288</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289291</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289294</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289297</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289299</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289302</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289305</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289308</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289311</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289314</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289317</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289320</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289323</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289326</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289328</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289331</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289334</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289336</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289340</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289342</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289345</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289348</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289351</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289354</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289357</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289359</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289362</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289365</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289368</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289371</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289373</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289376</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289379</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289382</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289384</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289387</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289390</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289393</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289396</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289398</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289401</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289406</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289409</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289412</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289415</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289418</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289421</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289424</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289426</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289429</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289432</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289434</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289437</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289440</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289443</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289446</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289449</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289451</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289454</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289457</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289459</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289462</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289465</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289468</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289471</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289473</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289476</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289479</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289482</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289485</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289487</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289490</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289493</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289495</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289498</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289501</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289504</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289507</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289510</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289513</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289515</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289518</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289521</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289524</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289527</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289529</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289532</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289535</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7436,12 +8836,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SDHA</t>
+          <t>PRPS1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
+          <t>phosphoribosyl pyrophosphate synthetase 1</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7452,6 +8852,11 @@
       <c r="E281" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289538</t>
         </is>
       </c>
     </row>
@@ -7461,12 +8866,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TAF15</t>
+          <t>SDHA</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>TATA-box binding protein associated factor 15</t>
+          <t>succinate dehydrogenase complex flavoprotein subunit A</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7477,6 +8882,11 @@
       <c r="E282" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289541</t>
         </is>
       </c>
     </row>
@@ -7504,6 +8914,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289543</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7511,12 +8926,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>TIA1</t>
+          <t>TAF15</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>TIA1 cytotoxic granule associated RNA binding protein</t>
+          <t>TATA-box binding protein associated factor 15</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7527,6 +8942,11 @@
       <c r="E284" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289546</t>
         </is>
       </c>
     </row>
@@ -7536,12 +8956,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>TRPC3</t>
+          <t>TIA1</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily C member 3</t>
+          <t>TIA1 cytotoxic granule associated RNA binding protein</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -7552,6 +8972,11 @@
       <c r="E285" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289549</t>
         </is>
       </c>
     </row>
@@ -7561,12 +8986,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>TUBA4A</t>
+          <t>TRPC3</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>tubulin alpha 4a</t>
+          <t>transient receptor potential cation channel subfamily C member 3</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7577,6 +9002,11 @@
       <c r="E286" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289552</t>
         </is>
       </c>
     </row>
@@ -7604,6 +9034,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289555</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7611,12 +9046,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TUBB4A</t>
+          <t>TUBA4A</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>tubulin beta 4A class IVa</t>
+          <t>tubulin alpha 4a</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7627,6 +9062,11 @@
       <c r="E288" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289557</t>
         </is>
       </c>
     </row>
@@ -7636,12 +9076,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>UBQLN4</t>
+          <t>TUBB4A</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>ubiquilin 4</t>
+          <t>tubulin beta 4A class IVa</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7652,6 +9092,11 @@
       <c r="E289" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289560</t>
         </is>
       </c>
     </row>
@@ -7661,12 +9106,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>UQCRC1</t>
+          <t>UBQLN4</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ubiquinol-cytochrome c reductase core protein 1</t>
+          <t>ubiquilin 4</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7677,6 +9122,11 @@
       <c r="E290" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289563</t>
         </is>
       </c>
     </row>
@@ -7686,12 +9136,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>VAMP1</t>
+          <t>UQCRC1</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>vesicle associated membrane protein 1</t>
+          <t>ubiquinol-cytochrome c reductase core protein 1</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7702,6 +9152,11 @@
       <c r="E291" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289567</t>
         </is>
       </c>
     </row>
@@ -7729,6 +9184,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289569</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7736,12 +9196,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>VAMP1</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>vesicle associated membrane protein 1</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7752,6 +9212,11 @@
       <c r="E293" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289572</t>
         </is>
       </c>
     </row>
@@ -7761,12 +9226,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ZFYVE26</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 26</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7777,6 +9242,11 @@
       <c r="E294" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289575</t>
         </is>
       </c>
     </row>
@@ -7786,22 +9256,27 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>AFG3L2</t>
+          <t>ZFYVE26</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AFG3 like matrix AAA peptidase subunit 2</t>
+          <t>zinc finger FYVE-type containing 26</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289578</t>
         </is>
       </c>
     </row>
@@ -7811,12 +9286,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>AIFM1</t>
+          <t>AFG3L2</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>apoptosis inducing factor mitochondria associated 1</t>
+          <t>AFG3 like matrix AAA peptidase subunit 2</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -7827,6 +9302,11 @@
       <c r="E296" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289581</t>
         </is>
       </c>
     </row>
@@ -7836,12 +9316,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ALS2</t>
+          <t>AIFM1</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
+          <t>apoptosis inducing factor mitochondria associated 1</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -7852,6 +9332,11 @@
       <c r="E297" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289583</t>
         </is>
       </c>
     </row>
@@ -7861,12 +9346,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ANG</t>
+          <t>ALS2</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>angiogenin</t>
+          <t>ALS2, alsin Rho guanine nucleotide exchange factor</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -7877,6 +9362,11 @@
       <c r="E298" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289586</t>
         </is>
       </c>
     </row>
@@ -7886,12 +9376,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ASAH1</t>
+          <t>ANG</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>N-acylsphingosine amidohydrolase 1</t>
+          <t>angiogenin</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -7902,6 +9392,11 @@
       <c r="E299" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289589</t>
         </is>
       </c>
     </row>
@@ -7911,12 +9406,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ATP1A2</t>
+          <t>ASAH1</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>ATPase Na+/K+ transporting subunit alpha 2</t>
+          <t>N-acylsphingosine amidohydrolase 1</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -7927,6 +9422,11 @@
       <c r="E300" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289592</t>
         </is>
       </c>
     </row>
@@ -7936,12 +9436,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ATP7A</t>
+          <t>ATP1A2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ATPase copper transporting alpha</t>
+          <t>ATPase Na+/K+ transporting subunit alpha 2</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -7952,6 +9452,11 @@
       <c r="E301" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289595</t>
         </is>
       </c>
     </row>
@@ -7961,12 +9466,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ATP7B</t>
+          <t>ATP7A</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ATPase copper transporting beta</t>
+          <t>ATPase copper transporting alpha</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -7977,6 +9482,11 @@
       <c r="E302" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289598</t>
         </is>
       </c>
     </row>
@@ -8004,6 +9514,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289600</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8011,12 +9526,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BICD2</t>
+          <t>ATP7B</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>BICD cargo adaptor 2</t>
+          <t>ATPase copper transporting beta</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8027,6 +9542,11 @@
       <c r="E304" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289603</t>
         </is>
       </c>
     </row>
@@ -8036,12 +9556,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>CACNB4</t>
+          <t>BICD2</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
+          <t>BICD cargo adaptor 2</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8052,6 +9572,11 @@
       <c r="E305" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289606</t>
         </is>
       </c>
     </row>
@@ -8061,12 +9586,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>CLN6</t>
+          <t>CACNB4</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CLN6, transmembrane ER protein</t>
+          <t>calcium voltage-gated channel auxiliary subunit beta 4</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8077,6 +9602,11 @@
       <c r="E306" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289609</t>
         </is>
       </c>
     </row>
@@ -8086,12 +9616,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DAO</t>
+          <t>CLN6</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>D-amino acid oxidase</t>
+          <t>CLN6, transmembrane ER protein</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8102,6 +9632,11 @@
       <c r="E307" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289612</t>
         </is>
       </c>
     </row>
@@ -8111,12 +9646,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DCAF17</t>
+          <t>DAO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>DDB1 and CUL4 associated factor 17</t>
+          <t>D-amino acid oxidase</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8127,6 +9662,11 @@
       <c r="E308" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289615</t>
         </is>
       </c>
     </row>
@@ -8136,12 +9676,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>DNAJC13</t>
+          <t>DCAF17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DnaJ heat shock protein family (Hsp40) member C13</t>
+          <t>DDB1 and CUL4 associated factor 17</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8152,6 +9692,11 @@
       <c r="E309" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289617</t>
         </is>
       </c>
     </row>
@@ -8161,12 +9706,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>DNM2</t>
+          <t>DNAJC13</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>dynamin 2</t>
+          <t>DnaJ heat shock protein family (Hsp40) member C13</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8177,6 +9722,11 @@
       <c r="E310" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289621</t>
         </is>
       </c>
     </row>
@@ -8186,12 +9736,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>DYNC1H1</t>
+          <t>DNM2</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>dynein cytoplasmic 1 heavy chain 1</t>
+          <t>dynamin 2</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8202,6 +9752,11 @@
       <c r="E311" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289624</t>
         </is>
       </c>
     </row>
@@ -8211,12 +9766,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>EEF2</t>
+          <t>DYNC1H1</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>eukaryotic translation elongation factor 2</t>
+          <t>dynein cytoplasmic 1 heavy chain 1</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8227,6 +9782,11 @@
       <c r="E312" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289627</t>
         </is>
       </c>
     </row>
@@ -8236,12 +9796,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ERLIN1</t>
+          <t>EEF2</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>ER lipid raft associated 1</t>
+          <t>eukaryotic translation elongation factor 2</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8252,6 +9812,11 @@
       <c r="E313" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289630</t>
         </is>
       </c>
     </row>
@@ -8261,12 +9826,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>EXOSC8</t>
+          <t>ERLIN1</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>exosome component 8</t>
+          <t>ER lipid raft associated 1</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8277,6 +9842,11 @@
       <c r="E314" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289633</t>
         </is>
       </c>
     </row>
@@ -8286,12 +9856,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>FA2H</t>
+          <t>EXOSC8</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>fatty acid 2-hydroxylase</t>
+          <t>exosome component 8</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8302,6 +9872,11 @@
       <c r="E315" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289635</t>
         </is>
       </c>
     </row>
@@ -8311,12 +9886,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>FDXR</t>
+          <t>FA2H</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>ferredoxin reductase</t>
+          <t>fatty acid 2-hydroxylase</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8327,6 +9902,11 @@
       <c r="E316" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289638</t>
         </is>
       </c>
     </row>
@@ -8336,12 +9916,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>FIG4</t>
+          <t>FDXR</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>FIG4 phosphoinositide 5-phosphatase</t>
+          <t>ferredoxin reductase</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8352,6 +9932,11 @@
       <c r="E317" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289641</t>
         </is>
       </c>
     </row>
@@ -8361,12 +9946,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>GCH1</t>
+          <t>FIG4</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>GTP cyclohydrolase 1</t>
+          <t>FIG4 phosphoinositide 5-phosphatase</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8377,6 +9962,11 @@
       <c r="E318" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289644</t>
         </is>
       </c>
     </row>
@@ -8386,12 +9976,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>GNE</t>
+          <t>GCH1</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>glucosamine (UDP-N-acetyl)-2-epimerase/N-acetylmannosamine kinase</t>
+          <t>GTP cyclohydrolase 1</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8402,6 +9992,11 @@
       <c r="E319" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289647</t>
         </is>
       </c>
     </row>
@@ -8411,12 +10006,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>GSN</t>
+          <t>GNE</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>gelsolin</t>
+          <t>glucosamine (UDP-N-acetyl)-2-epimerase/N-acetylmannosamine kinase</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8427,6 +10022,11 @@
       <c r="E320" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289649</t>
         </is>
       </c>
     </row>
@@ -8436,12 +10036,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>HNRNPA1</t>
+          <t>GSN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>heterogeneous nuclear ribonucleoprotein A1</t>
+          <t>gelsolin</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8452,6 +10052,11 @@
       <c r="E321" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289652</t>
         </is>
       </c>
     </row>
@@ -8461,12 +10066,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>HTRA2</t>
+          <t>HNRNPA1</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>HtrA serine peptidase 2</t>
+          <t>heterogeneous nuclear ribonucleoprotein A1</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8477,6 +10082,11 @@
       <c r="E322" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289655</t>
         </is>
       </c>
     </row>
@@ -8486,12 +10096,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>IFRD1</t>
+          <t>HTRA2</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>interferon related developmental regulator 1</t>
+          <t>HtrA serine peptidase 2</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8502,6 +10112,11 @@
       <c r="E323" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289658</t>
         </is>
       </c>
     </row>
@@ -8511,12 +10126,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>IGHMBP2</t>
+          <t>IFRD1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>immunoglobulin mu binding protein 2</t>
+          <t>interferon related developmental regulator 1</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8527,6 +10142,11 @@
       <c r="E324" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289661</t>
         </is>
       </c>
     </row>
@@ -8536,12 +10156,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>LAS1L</t>
+          <t>IGHMBP2</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>LAS1 like, ribosome biogenesis factor</t>
+          <t>immunoglobulin mu binding protein 2</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8552,6 +10172,11 @@
       <c r="E325" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289664</t>
         </is>
       </c>
     </row>
@@ -8561,12 +10186,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>MME</t>
+          <t>LAS1L</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>membrane metalloendopeptidase</t>
+          <t>LAS1 like, ribosome biogenesis factor</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8577,6 +10202,11 @@
       <c r="E326" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289666</t>
         </is>
       </c>
     </row>
@@ -8586,12 +10216,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NOL3</t>
+          <t>MME</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>nucleolar protein 3</t>
+          <t>membrane metalloendopeptidase</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8602,6 +10232,11 @@
       <c r="E327" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289669</t>
         </is>
       </c>
     </row>
@@ -8611,12 +10246,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>NR4A2</t>
+          <t>NOL3</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>nuclear receptor subfamily 4 group A member 2</t>
+          <t>nucleolar protein 3</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8627,6 +10262,11 @@
       <c r="E328" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289672</t>
         </is>
       </c>
     </row>
@@ -8636,12 +10276,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>PLEKHG5</t>
+          <t>NR4A2</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RhoGEF domain containing G5</t>
+          <t>nuclear receptor subfamily 4 group A member 2</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8652,6 +10292,11 @@
       <c r="E329" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289675</t>
         </is>
       </c>
     </row>
@@ -8661,12 +10306,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>PODXL</t>
+          <t>PLEKHG5</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>podocalyxin like</t>
+          <t>pleckstrin homology and RhoGEF domain containing G5</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8677,6 +10322,11 @@
       <c r="E330" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289677</t>
         </is>
       </c>
     </row>
@@ -8686,12 +10336,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>PSEN2</t>
+          <t>PODXL</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>presenilin 2</t>
+          <t>podocalyxin like</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8702,6 +10352,11 @@
       <c r="E331" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289680</t>
         </is>
       </c>
     </row>
@@ -8711,12 +10366,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>RIC3</t>
+          <t>PSEN2</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>RIC3 acetylcholine receptor chaperone</t>
+          <t>presenilin 2</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8727,6 +10382,11 @@
       <c r="E332" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289683</t>
         </is>
       </c>
     </row>
@@ -8736,12 +10396,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>SEPSECS</t>
+          <t>RIC3</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
+          <t>RIC3 acetylcholine receptor chaperone</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8752,6 +10412,11 @@
       <c r="E333" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289686</t>
         </is>
       </c>
     </row>
@@ -8761,12 +10426,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>SETX</t>
+          <t>SEPSECS</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>senataxin</t>
+          <t>Sep (O-phosphoserine) tRNA:Sec (selenocysteine) tRNA synthase</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8777,6 +10442,11 @@
       <c r="E334" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289688</t>
         </is>
       </c>
     </row>
@@ -8786,12 +10456,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SLC33A1</t>
+          <t>SETX</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>solute carrier family 33 member 1</t>
+          <t>senataxin</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8802,6 +10472,11 @@
       <c r="E335" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289692</t>
         </is>
       </c>
     </row>
@@ -8811,12 +10486,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>SLC52A1</t>
+          <t>SLC33A1</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>solute carrier family 52 member 1</t>
+          <t>solute carrier family 33 member 1</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -8827,6 +10502,11 @@
       <c r="E336" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289694</t>
         </is>
       </c>
     </row>
@@ -8836,12 +10516,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>SNCB</t>
+          <t>SLC52A1</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>synuclein beta</t>
+          <t>solute carrier family 52 member 1</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -8852,6 +10532,11 @@
       <c r="E337" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289697</t>
         </is>
       </c>
     </row>
@@ -8861,12 +10546,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>SOD1</t>
+          <t>SNCB</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>superoxide dismutase 1</t>
+          <t>synuclein beta</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -8877,6 +10562,11 @@
       <c r="E338" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289700</t>
         </is>
       </c>
     </row>
@@ -8886,12 +10576,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>SPART</t>
+          <t>SOD1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>spartin</t>
+          <t>superoxide dismutase 1</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -8902,6 +10592,11 @@
       <c r="E339" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289703</t>
         </is>
       </c>
     </row>
@@ -8911,12 +10606,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>SYT14</t>
+          <t>SPART</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>synaptotagmin 14</t>
+          <t>spartin</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -8927,6 +10622,11 @@
       <c r="E340" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289706</t>
         </is>
       </c>
     </row>
@@ -8936,12 +10636,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TET2</t>
+          <t>SYT14</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>tet methylcytosine dioxygenase 2</t>
+          <t>synaptotagmin 14</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -8952,6 +10652,11 @@
       <c r="E341" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289709</t>
         </is>
       </c>
     </row>
@@ -8961,12 +10666,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TGM6</t>
+          <t>TET2</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>transglutaminase 6</t>
+          <t>tet methylcytosine dioxygenase 2</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -8977,6 +10682,11 @@
       <c r="E342" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289712</t>
         </is>
       </c>
     </row>
@@ -8986,12 +10696,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TGM6</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>tyrosine hydroxylase</t>
+          <t>transglutaminase 6</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9002,6 +10712,11 @@
       <c r="E343" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289715</t>
         </is>
       </c>
     </row>
@@ -9011,12 +10726,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TMEM230</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>transmembrane protein 230</t>
+          <t>tyrosine hydroxylase</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9027,6 +10742,11 @@
       <c r="E344" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289717</t>
         </is>
       </c>
     </row>
@@ -9036,12 +10756,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TRIP4</t>
+          <t>TMEM230</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>thyroid hormone receptor interactor 4</t>
+          <t>transmembrane protein 230</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9052,6 +10772,11 @@
       <c r="E345" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289720</t>
         </is>
       </c>
     </row>
@@ -9061,12 +10786,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TRPV4</t>
+          <t>TRIP4</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>transient receptor potential cation channel subfamily V member 4</t>
+          <t>thyroid hormone receptor interactor 4</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9077,6 +10802,11 @@
       <c r="E346" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289723</t>
         </is>
       </c>
     </row>
@@ -9086,12 +10816,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TSEN54</t>
+          <t>TRPV4</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 54</t>
+          <t>transient receptor potential cation channel subfamily V member 4</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9102,6 +10832,11 @@
       <c r="E347" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289726</t>
         </is>
       </c>
     </row>
@@ -9111,12 +10846,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TSPOAP1</t>
+          <t>TSEN54</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>TSPO associated protein 1</t>
+          <t>tRNA splicing endonuclease subunit 54</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9127,6 +10862,11 @@
       <c r="E348" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289728</t>
         </is>
       </c>
     </row>
@@ -9136,12 +10876,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>UBA1</t>
+          <t>TSPOAP1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 1</t>
+          <t>TSPO associated protein 1</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9152,6 +10892,11 @@
       <c r="E349" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289731</t>
         </is>
       </c>
     </row>
@@ -9161,12 +10906,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>UCHL1</t>
+          <t>UBA1</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>ubiquitin C-terminal hydrolase L1</t>
+          <t>ubiquitin like modifier activating enzyme 1</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9177,6 +10922,11 @@
       <c r="E350" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289734</t>
         </is>
       </c>
     </row>
@@ -9186,12 +10936,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>VAPB</t>
+          <t>UCHL1</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>VAMP associated protein B and C</t>
+          <t>ubiquitin C-terminal hydrolase L1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9202,6 +10952,11 @@
       <c r="E351" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289737</t>
         </is>
       </c>
     </row>
@@ -9211,12 +10966,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>VWA3B</t>
+          <t>VAPB</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>von Willebrand factor A domain containing 3B</t>
+          <t>VAMP associated protein B and C</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9227,6 +10982,11 @@
       <c r="E352" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289740</t>
         </is>
       </c>
     </row>
@@ -9236,12 +10996,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>ZFYVE27</t>
+          <t>VWA3B</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>zinc finger FYVE-type containing 27</t>
+          <t>von Willebrand factor A domain containing 3B</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9252,6 +11012,11 @@
       <c r="E353" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289742</t>
         </is>
       </c>
     </row>
@@ -9261,22 +11026,27 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ATN1</t>
+          <t>ZFYVE27</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>atrophin 1</t>
+          <t>zinc finger FYVE-type containing 27</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289747</t>
         </is>
       </c>
     </row>
@@ -9304,6 +11074,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289750</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9311,12 +11086,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ATXN1</t>
+          <t>ATN1</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>ataxin 1</t>
+          <t>atrophin 1</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -9327,6 +11102,11 @@
       <c r="E356" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289753</t>
         </is>
       </c>
     </row>
@@ -9336,12 +11116,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>ATXN10</t>
+          <t>ATXN1</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>ataxin 10</t>
+          <t>ataxin 1</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9352,6 +11132,11 @@
       <c r="E357" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289756</t>
         </is>
       </c>
     </row>
@@ -9361,12 +11146,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ATXN2</t>
+          <t>ATXN10</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>ataxin 2</t>
+          <t>ataxin 10</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -9377,6 +11162,11 @@
       <c r="E358" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289758</t>
         </is>
       </c>
     </row>
@@ -9386,12 +11176,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ATXN3</t>
+          <t>ATXN2</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>ataxin 3</t>
+          <t>ataxin 2</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9402,6 +11192,11 @@
       <c r="E359" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289761</t>
         </is>
       </c>
     </row>
@@ -9411,12 +11206,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>ATXN7</t>
+          <t>ATXN3</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>ataxin 7</t>
+          <t>ataxin 3</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9427,6 +11222,11 @@
       <c r="E360" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289764</t>
         </is>
       </c>
     </row>
@@ -9436,12 +11236,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>ATXN8</t>
+          <t>ATXN7</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>ataxin 8</t>
+          <t>ataxin 7</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9452,6 +11252,11 @@
       <c r="E361" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289767</t>
         </is>
       </c>
     </row>
@@ -9461,12 +11266,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BEAN1</t>
+          <t>ATXN8</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>brain expressed associated with NEDD4 1</t>
+          <t>ataxin 8</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9477,6 +11282,11 @@
       <c r="E362" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289769</t>
         </is>
       </c>
     </row>
@@ -9486,12 +11296,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>C9orf72</t>
+          <t>BEAN1</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>chromosome 9 open reading frame 72</t>
+          <t>brain expressed associated with NEDD4 1</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9502,6 +11312,11 @@
       <c r="E363" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289772</t>
         </is>
       </c>
     </row>
@@ -9529,6 +11344,11 @@
           <t>Neurodegenerative disease - adult onset</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289775</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9536,12 +11356,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DAB1</t>
+          <t>C9orf72</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>DAB1, reelin adaptor protein</t>
+          <t>chromosome 9 open reading frame 72</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9552,6 +11372,11 @@
       <c r="E365" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289778</t>
         </is>
       </c>
     </row>
@@ -9561,12 +11386,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>FMR1</t>
+          <t>DAB1</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>fragile X mental retardation 1</t>
+          <t>DAB1, reelin adaptor protein</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -9577,6 +11402,11 @@
       <c r="E366" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289781</t>
         </is>
       </c>
     </row>
@@ -9586,12 +11416,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>HTT</t>
+          <t>FMR1</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>huntingtin</t>
+          <t>fragile X mental retardation 1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9602,6 +11432,11 @@
       <c r="E367" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289783</t>
         </is>
       </c>
     </row>
@@ -9611,12 +11446,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>NOP56</t>
+          <t>HTT</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>NOP56 ribonucleoprotein</t>
+          <t>huntingtin</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9627,6 +11462,11 @@
       <c r="E368" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289786</t>
         </is>
       </c>
     </row>
@@ -9636,12 +11476,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>PPP2R2B</t>
+          <t>NOP56</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>protein phosphatase 2 regulatory subunit Bbeta</t>
+          <t>NOP56 ribonucleoprotein</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9652,6 +11492,11 @@
       <c r="E369" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289789</t>
         </is>
       </c>
     </row>
@@ -9661,12 +11506,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>RFC1</t>
+          <t>PPP2R2B</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>replication factor C subunit 1</t>
+          <t>protein phosphatase 2 regulatory subunit Bbeta</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9677,6 +11522,11 @@
       <c r="E370" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289792</t>
         </is>
       </c>
     </row>
@@ -9686,12 +11536,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TAF1</t>
+          <t>RFC1</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>TATA-box binding protein associated factor 1</t>
+          <t>replication factor C subunit 1</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9702,6 +11552,11 @@
       <c r="E371" t="inlineStr">
         <is>
           <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289794</t>
         </is>
       </c>
     </row>
@@ -9711,22 +11566,57 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
+          <t>TAF1</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>TATA-box binding protein associated factor 1</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289797</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
           <t>TBP</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr">
+      <c r="C373" t="inlineStr">
         <is>
           <t>TATA-box binding protein</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr">
+      <c r="D373" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr">
-        <is>
-          <t>Neurodegenerative disease - adult onset</t>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:52:02.289800</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Neurodegenerative disease - adult onset.xlsx
+++ b/data/panelapp/au/Neurodegenerative disease - adult onset.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288698</t>
+          <t>2021-10-05 14:35:04.123704</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288711</t>
+          <t>2021-10-05 14:35:04.123711</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288714</t>
+          <t>2021-10-05 14:35:04.123714</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288716</t>
+          <t>2021-10-05 14:35:04.123716</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288719</t>
+          <t>2021-10-05 14:35:04.123718</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288722</t>
+          <t>2021-10-05 14:35:04.123721</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288725</t>
+          <t>2021-10-05 14:35:04.123723</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288727</t>
+          <t>2021-10-05 14:35:04.123725</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288730</t>
+          <t>2021-10-05 14:35:04.123727</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288733</t>
+          <t>2021-10-05 14:35:04.123729</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288735</t>
+          <t>2021-10-05 14:35:04.123732</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288738</t>
+          <t>2021-10-05 14:35:04.123734</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288741</t>
+          <t>2021-10-05 14:35:04.123736</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288743</t>
+          <t>2021-10-05 14:35:04.123738</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288746</t>
+          <t>2021-10-05 14:35:04.123740</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288749</t>
+          <t>2021-10-05 14:35:04.123742</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288751</t>
+          <t>2021-10-05 14:35:04.123745</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288754</t>
+          <t>2021-10-05 14:35:04.123747</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288757</t>
+          <t>2021-10-05 14:35:04.123749</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288760</t>
+          <t>2021-10-05 14:35:04.123751</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288762</t>
+          <t>2021-10-05 14:35:04.123753</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288765</t>
+          <t>2021-10-05 14:35:04.123756</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288768</t>
+          <t>2021-10-05 14:35:04.123758</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288770</t>
+          <t>2021-10-05 14:35:04.123760</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288773</t>
+          <t>2021-10-05 14:35:04.123762</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288776</t>
+          <t>2021-10-05 14:35:04.123765</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288778</t>
+          <t>2021-10-05 14:35:04.123767</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288781</t>
+          <t>2021-10-05 14:35:04.123769</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288783</t>
+          <t>2021-10-05 14:35:04.123771</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288786</t>
+          <t>2021-10-05 14:35:04.123773</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288789</t>
+          <t>2021-10-05 14:35:04.123775</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288791</t>
+          <t>2021-10-05 14:35:04.123777</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288794</t>
+          <t>2021-10-05 14:35:04.123780</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288797</t>
+          <t>2021-10-05 14:35:04.123782</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288799</t>
+          <t>2021-10-05 14:35:04.123784</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288802</t>
+          <t>2021-10-05 14:35:04.123786</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288804</t>
+          <t>2021-10-05 14:35:04.123789</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288807</t>
+          <t>2021-10-05 14:35:04.123791</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288809</t>
+          <t>2021-10-05 14:35:04.123793</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288812</t>
+          <t>2021-10-05 14:35:04.123795</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288846</t>
+          <t>2021-10-05 14:35:04.123798</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288850</t>
+          <t>2021-10-05 14:35:04.123800</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288853</t>
+          <t>2021-10-05 14:35:04.123802</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288856</t>
+          <t>2021-10-05 14:35:04.123804</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288859</t>
+          <t>2021-10-05 14:35:04.123806</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288862</t>
+          <t>2021-10-05 14:35:04.123808</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288865</t>
+          <t>2021-10-05 14:35:04.123811</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288868</t>
+          <t>2021-10-05 14:35:04.123813</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288871</t>
+          <t>2021-10-05 14:35:04.123815</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288874</t>
+          <t>2021-10-05 14:35:04.123817</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288877</t>
+          <t>2021-10-05 14:35:04.123819</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288880</t>
+          <t>2021-10-05 14:35:04.123821</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288883</t>
+          <t>2021-10-05 14:35:04.123824</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288886</t>
+          <t>2021-10-05 14:35:04.123826</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288889</t>
+          <t>2021-10-05 14:35:04.123828</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288892</t>
+          <t>2021-10-05 14:35:04.123830</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288895</t>
+          <t>2021-10-05 14:35:04.123833</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288898</t>
+          <t>2021-10-05 14:35:04.123835</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288901</t>
+          <t>2021-10-05 14:35:04.123837</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288903</t>
+          <t>2021-10-05 14:35:04.123839</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288906</t>
+          <t>2021-10-05 14:35:04.123841</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288909</t>
+          <t>2021-10-05 14:35:04.123843</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288912</t>
+          <t>2021-10-05 14:35:04.123845</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288914</t>
+          <t>2021-10-05 14:35:04.123847</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288919</t>
+          <t>2021-10-05 14:35:04.123850</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288922</t>
+          <t>2021-10-05 14:35:04.123853</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288925</t>
+          <t>2021-10-05 14:35:04.123855</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288927</t>
+          <t>2021-10-05 14:35:04.123857</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288930</t>
+          <t>2021-10-05 14:35:04.123860</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288933</t>
+          <t>2021-10-05 14:35:04.123862</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288936</t>
+          <t>2021-10-05 14:35:04.123864</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288938</t>
+          <t>2021-10-05 14:35:04.123866</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288941</t>
+          <t>2021-10-05 14:35:04.123869</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288944</t>
+          <t>2021-10-05 14:35:04.123871</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288947</t>
+          <t>2021-10-05 14:35:04.123873</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288949</t>
+          <t>2021-10-05 14:35:04.123875</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288954</t>
+          <t>2021-10-05 14:35:04.123879</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288957</t>
+          <t>2021-10-05 14:35:04.123882</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288960</t>
+          <t>2021-10-05 14:35:04.123884</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288963</t>
+          <t>2021-10-05 14:35:04.123886</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288966</t>
+          <t>2021-10-05 14:35:04.123888</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288969</t>
+          <t>2021-10-05 14:35:04.123891</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288972</t>
+          <t>2021-10-05 14:35:04.123893</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288975</t>
+          <t>2021-10-05 14:35:04.123895</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288978</t>
+          <t>2021-10-05 14:35:04.123897</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288980</t>
+          <t>2021-10-05 14:35:04.123899</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288983</t>
+          <t>2021-10-05 14:35:04.123901</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288986</t>
+          <t>2021-10-05 14:35:04.123903</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288989</t>
+          <t>2021-10-05 14:35:04.123906</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288992</t>
+          <t>2021-10-05 14:35:04.123908</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288994</t>
+          <t>2021-10-05 14:35:04.123910</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.288998</t>
+          <t>2021-10-05 14:35:04.123912</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289002</t>
+          <t>2021-10-05 14:35:04.123915</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289005</t>
+          <t>2021-10-05 14:35:04.123918</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289008</t>
+          <t>2021-10-05 14:35:04.123920</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289011</t>
+          <t>2021-10-05 14:35:04.123922</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289014</t>
+          <t>2021-10-05 14:35:04.123924</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289017</t>
+          <t>2021-10-05 14:35:04.123927</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289019</t>
+          <t>2021-10-05 14:35:04.123929</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289022</t>
+          <t>2021-10-05 14:35:04.123931</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289025</t>
+          <t>2021-10-05 14:35:04.123933</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289028</t>
+          <t>2021-10-05 14:35:04.123935</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289031</t>
+          <t>2021-10-05 14:35:04.123937</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289033</t>
+          <t>2021-10-05 14:35:04.123940</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289036</t>
+          <t>2021-10-05 14:35:04.123942</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289039</t>
+          <t>2021-10-05 14:35:04.123944</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289042</t>
+          <t>2021-10-05 14:35:04.123946</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289045</t>
+          <t>2021-10-05 14:35:04.123948</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289050</t>
+          <t>2021-10-05 14:35:04.123952</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289053</t>
+          <t>2021-10-05 14:35:04.123955</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289056</t>
+          <t>2021-10-05 14:35:04.123957</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289059</t>
+          <t>2021-10-05 14:35:04.123959</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289062</t>
+          <t>2021-10-05 14:35:04.123961</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289064</t>
+          <t>2021-10-05 14:35:04.123963</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289067</t>
+          <t>2021-10-05 14:35:04.123966</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289070</t>
+          <t>2021-10-05 14:35:04.123968</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289073</t>
+          <t>2021-10-05 14:35:04.123970</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289075</t>
+          <t>2021-10-05 14:35:04.123972</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289078</t>
+          <t>2021-10-05 14:35:04.123975</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289081</t>
+          <t>2021-10-05 14:35:04.123977</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289084</t>
+          <t>2021-10-05 14:35:04.123979</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289086</t>
+          <t>2021-10-05 14:35:04.123981</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289090</t>
+          <t>2021-10-05 14:35:04.123983</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289092</t>
+          <t>2021-10-05 14:35:04.123985</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289095</t>
+          <t>2021-10-05 14:35:04.123987</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289098</t>
+          <t>2021-10-05 14:35:04.123990</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289101</t>
+          <t>2021-10-05 14:35:04.123992</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289104</t>
+          <t>2021-10-05 14:35:04.123994</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289109</t>
+          <t>2021-10-05 14:35:04.123997</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289112</t>
+          <t>2021-10-05 14:35:04.124000</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289115</t>
+          <t>2021-10-05 14:35:04.124003</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289118</t>
+          <t>2021-10-05 14:35:04.124005</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289121</t>
+          <t>2021-10-05 14:35:04.124007</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289123</t>
+          <t>2021-10-05 14:35:04.124009</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289126</t>
+          <t>2021-10-05 14:35:04.124011</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289129</t>
+          <t>2021-10-05 14:35:04.124014</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289132</t>
+          <t>2021-10-05 14:35:04.124016</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289135</t>
+          <t>2021-10-05 14:35:04.124018</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289138</t>
+          <t>2021-10-05 14:35:04.124020</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289140</t>
+          <t>2021-10-05 14:35:04.124023</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289143</t>
+          <t>2021-10-05 14:35:04.124025</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289146</t>
+          <t>2021-10-05 14:35:04.124027</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289148</t>
+          <t>2021-10-05 14:35:04.124029</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289151</t>
+          <t>2021-10-05 14:35:04.124031</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289154</t>
+          <t>2021-10-05 14:35:04.124034</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289157</t>
+          <t>2021-10-05 14:35:04.124036</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289160</t>
+          <t>2021-10-05 14:35:04.124038</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289163</t>
+          <t>2021-10-05 14:35:04.124040</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289166</t>
+          <t>2021-10-05 14:35:04.124043</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289168</t>
+          <t>2021-10-05 14:35:04.124045</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289171</t>
+          <t>2021-10-05 14:35:04.124047</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289174</t>
+          <t>2021-10-05 14:35:04.124050</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289177</t>
+          <t>2021-10-05 14:35:04.124052</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289180</t>
+          <t>2021-10-05 14:35:04.124054</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289183</t>
+          <t>2021-10-05 14:35:04.124057</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289186</t>
+          <t>2021-10-05 14:35:04.124059</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289189</t>
+          <t>2021-10-05 14:35:04.124061</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289191</t>
+          <t>2021-10-05 14:35:04.124063</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289194</t>
+          <t>2021-10-05 14:35:04.124065</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289197</t>
+          <t>2021-10-05 14:35:04.124067</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289200</t>
+          <t>2021-10-05 14:35:04.124070</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289202</t>
+          <t>2021-10-05 14:35:04.124072</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289205</t>
+          <t>2021-10-05 14:35:04.124074</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289208</t>
+          <t>2021-10-05 14:35:04.124076</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289211</t>
+          <t>2021-10-05 14:35:04.124078</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289213</t>
+          <t>2021-10-05 14:35:04.124081</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289217</t>
+          <t>2021-10-05 14:35:04.124083</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289219</t>
+          <t>2021-10-05 14:35:04.124085</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289222</t>
+          <t>2021-10-05 14:35:04.124088</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289225</t>
+          <t>2021-10-05 14:35:04.124090</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289228</t>
+          <t>2021-10-05 14:35:04.124092</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289230</t>
+          <t>2021-10-05 14:35:04.124094</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289235</t>
+          <t>2021-10-05 14:35:04.124097</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289238</t>
+          <t>2021-10-05 14:35:04.124100</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289241</t>
+          <t>2021-10-05 14:35:04.124102</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289244</t>
+          <t>2021-10-05 14:35:04.124104</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289247</t>
+          <t>2021-10-05 14:35:04.124106</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289249</t>
+          <t>2021-10-05 14:35:04.124109</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289252</t>
+          <t>2021-10-05 14:35:04.124111</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289255</t>
+          <t>2021-10-05 14:35:04.124113</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289258</t>
+          <t>2021-10-05 14:35:04.124115</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289260</t>
+          <t>2021-10-05 14:35:04.124117</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289263</t>
+          <t>2021-10-05 14:35:04.124120</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289266</t>
+          <t>2021-10-05 14:35:04.124122</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289269</t>
+          <t>2021-10-05 14:35:04.124124</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289271</t>
+          <t>2021-10-05 14:35:04.124126</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289274</t>
+          <t>2021-10-05 14:35:04.124129</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289277</t>
+          <t>2021-10-05 14:35:04.124131</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289280</t>
+          <t>2021-10-05 14:35:04.124133</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289282</t>
+          <t>2021-10-05 14:35:04.124135</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289285</t>
+          <t>2021-10-05 14:35:04.124137</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289288</t>
+          <t>2021-10-05 14:35:04.124140</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289291</t>
+          <t>2021-10-05 14:35:04.124142</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289294</t>
+          <t>2021-10-05 14:35:04.124144</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289297</t>
+          <t>2021-10-05 14:35:04.124147</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289299</t>
+          <t>2021-10-05 14:35:04.124149</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289302</t>
+          <t>2021-10-05 14:35:04.124151</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289305</t>
+          <t>2021-10-05 14:35:04.124153</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289308</t>
+          <t>2021-10-05 14:35:04.124156</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289311</t>
+          <t>2021-10-05 14:35:04.124158</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289314</t>
+          <t>2021-10-05 14:35:04.124160</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289317</t>
+          <t>2021-10-05 14:35:04.124163</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289320</t>
+          <t>2021-10-05 14:35:04.124165</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289323</t>
+          <t>2021-10-05 14:35:04.124167</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289326</t>
+          <t>2021-10-05 14:35:04.124169</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289328</t>
+          <t>2021-10-05 14:35:04.124172</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289331</t>
+          <t>2021-10-05 14:35:04.124174</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289334</t>
+          <t>2021-10-05 14:35:04.124176</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289336</t>
+          <t>2021-10-05 14:35:04.124178</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289340</t>
+          <t>2021-10-05 14:35:04.124180</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289342</t>
+          <t>2021-10-05 14:35:04.124182</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289345</t>
+          <t>2021-10-05 14:35:04.124184</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289348</t>
+          <t>2021-10-05 14:35:04.124187</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289351</t>
+          <t>2021-10-05 14:35:04.124189</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289354</t>
+          <t>2021-10-05 14:35:04.124191</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289357</t>
+          <t>2021-10-05 14:35:04.124193</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289359</t>
+          <t>2021-10-05 14:35:04.124195</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289362</t>
+          <t>2021-10-05 14:35:04.124198</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289365</t>
+          <t>2021-10-05 14:35:04.124200</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289368</t>
+          <t>2021-10-05 14:35:04.124202</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289371</t>
+          <t>2021-10-05 14:35:04.124205</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289373</t>
+          <t>2021-10-05 14:35:04.124207</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289376</t>
+          <t>2021-10-05 14:35:04.124209</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289379</t>
+          <t>2021-10-05 14:35:04.124211</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289382</t>
+          <t>2021-10-05 14:35:04.124213</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289384</t>
+          <t>2021-10-05 14:35:04.124216</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289387</t>
+          <t>2021-10-05 14:35:04.124218</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289390</t>
+          <t>2021-10-05 14:35:04.124220</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289393</t>
+          <t>2021-10-05 14:35:04.124223</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289396</t>
+          <t>2021-10-05 14:35:04.124225</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289398</t>
+          <t>2021-10-05 14:35:04.124227</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289401</t>
+          <t>2021-10-05 14:35:04.124229</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289406</t>
+          <t>2021-10-05 14:35:04.124233</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289409</t>
+          <t>2021-10-05 14:35:04.124235</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289412</t>
+          <t>2021-10-05 14:35:04.124238</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289415</t>
+          <t>2021-10-05 14:35:04.124240</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289418</t>
+          <t>2021-10-05 14:35:04.124242</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289421</t>
+          <t>2021-10-05 14:35:04.124244</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289424</t>
+          <t>2021-10-05 14:35:04.124246</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289426</t>
+          <t>2021-10-05 14:35:04.124248</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289429</t>
+          <t>2021-10-05 14:35:04.124251</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289432</t>
+          <t>2021-10-05 14:35:04.124253</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289434</t>
+          <t>2021-10-05 14:35:04.124255</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289437</t>
+          <t>2021-10-05 14:35:04.124257</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289440</t>
+          <t>2021-10-05 14:35:04.124259</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289443</t>
+          <t>2021-10-05 14:35:04.124261</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289446</t>
+          <t>2021-10-05 14:35:04.124264</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289449</t>
+          <t>2021-10-05 14:35:04.124266</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289451</t>
+          <t>2021-10-05 14:35:04.124268</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289454</t>
+          <t>2021-10-05 14:35:04.124270</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289457</t>
+          <t>2021-10-05 14:35:04.124272</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289459</t>
+          <t>2021-10-05 14:35:04.124275</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289462</t>
+          <t>2021-10-05 14:35:04.124277</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289465</t>
+          <t>2021-10-05 14:35:04.124279</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289468</t>
+          <t>2021-10-05 14:35:04.124281</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289471</t>
+          <t>2021-10-05 14:35:04.124283</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289473</t>
+          <t>2021-10-05 14:35:04.124286</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289476</t>
+          <t>2021-10-05 14:35:04.124288</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289479</t>
+          <t>2021-10-05 14:35:04.124290</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289482</t>
+          <t>2021-10-05 14:35:04.124292</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289485</t>
+          <t>2021-10-05 14:35:04.124294</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289487</t>
+          <t>2021-10-05 14:35:04.124296</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289490</t>
+          <t>2021-10-05 14:35:04.124299</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289493</t>
+          <t>2021-10-05 14:35:04.124301</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289495</t>
+          <t>2021-10-05 14:35:04.124303</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289498</t>
+          <t>2021-10-05 14:35:04.124305</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289501</t>
+          <t>2021-10-05 14:35:04.124307</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289504</t>
+          <t>2021-10-05 14:35:04.124309</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289507</t>
+          <t>2021-10-05 14:35:04.124312</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289510</t>
+          <t>2021-10-05 14:35:04.124314</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289513</t>
+          <t>2021-10-05 14:35:04.124316</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289515</t>
+          <t>2021-10-05 14:35:04.124319</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289518</t>
+          <t>2021-10-05 14:35:04.124321</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289521</t>
+          <t>2021-10-05 14:35:04.124323</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289524</t>
+          <t>2021-10-05 14:35:04.124325</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289527</t>
+          <t>2021-10-05 14:35:04.124328</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289529</t>
+          <t>2021-10-05 14:35:04.124330</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289532</t>
+          <t>2021-10-05 14:35:04.124332</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289535</t>
+          <t>2021-10-05 14:35:04.124334</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289538</t>
+          <t>2021-10-05 14:35:04.124337</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289541</t>
+          <t>2021-10-05 14:35:04.124339</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289543</t>
+          <t>2021-10-05 14:35:04.124341</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289546</t>
+          <t>2021-10-05 14:35:04.124343</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289549</t>
+          <t>2021-10-05 14:35:04.124346</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289552</t>
+          <t>2021-10-05 14:35:04.124348</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289555</t>
+          <t>2021-10-05 14:35:04.124350</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289557</t>
+          <t>2021-10-05 14:35:04.124352</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289560</t>
+          <t>2021-10-05 14:35:04.124355</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289563</t>
+          <t>2021-10-05 14:35:04.124357</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289567</t>
+          <t>2021-10-05 14:35:04.124359</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289569</t>
+          <t>2021-10-05 14:35:04.124361</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289572</t>
+          <t>2021-10-05 14:35:04.124363</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289575</t>
+          <t>2021-10-05 14:35:04.124366</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289578</t>
+          <t>2021-10-05 14:35:04.124368</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289581</t>
+          <t>2021-10-05 14:35:04.124370</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289583</t>
+          <t>2021-10-05 14:35:04.124372</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289586</t>
+          <t>2021-10-05 14:35:04.124375</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289589</t>
+          <t>2021-10-05 14:35:04.124377</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289592</t>
+          <t>2021-10-05 14:35:04.124379</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289595</t>
+          <t>2021-10-05 14:35:04.124381</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289598</t>
+          <t>2021-10-05 14:35:04.124383</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289600</t>
+          <t>2021-10-05 14:35:04.124386</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289603</t>
+          <t>2021-10-05 14:35:04.124388</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289606</t>
+          <t>2021-10-05 14:35:04.124390</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289609</t>
+          <t>2021-10-05 14:35:04.124392</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289612</t>
+          <t>2021-10-05 14:35:04.124394</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289615</t>
+          <t>2021-10-05 14:35:04.124396</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289617</t>
+          <t>2021-10-05 14:35:04.124399</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289621</t>
+          <t>2021-10-05 14:35:04.124402</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289624</t>
+          <t>2021-10-05 14:35:04.124405</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289627</t>
+          <t>2021-10-05 14:35:04.124407</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289630</t>
+          <t>2021-10-05 14:35:04.124409</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289633</t>
+          <t>2021-10-05 14:35:04.124412</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289635</t>
+          <t>2021-10-05 14:35:04.124414</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289638</t>
+          <t>2021-10-05 14:35:04.124416</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289641</t>
+          <t>2021-10-05 14:35:04.124418</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289644</t>
+          <t>2021-10-05 14:35:04.124421</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289647</t>
+          <t>2021-10-05 14:35:04.124423</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289649</t>
+          <t>2021-10-05 14:35:04.124425</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289652</t>
+          <t>2021-10-05 14:35:04.124428</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289655</t>
+          <t>2021-10-05 14:35:04.124430</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289658</t>
+          <t>2021-10-05 14:35:04.124432</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289661</t>
+          <t>2021-10-05 14:35:04.124434</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289664</t>
+          <t>2021-10-05 14:35:04.124436</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289666</t>
+          <t>2021-10-05 14:35:04.124438</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289669</t>
+          <t>2021-10-05 14:35:04.124441</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289672</t>
+          <t>2021-10-05 14:35:04.124443</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289675</t>
+          <t>2021-10-05 14:35:04.124445</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289677</t>
+          <t>2021-10-05 14:35:04.124447</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289680</t>
+          <t>2021-10-05 14:35:04.124450</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289683</t>
+          <t>2021-10-05 14:35:04.124452</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289686</t>
+          <t>2021-10-05 14:35:04.124454</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289688</t>
+          <t>2021-10-05 14:35:04.124456</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289692</t>
+          <t>2021-10-05 14:35:04.124458</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289694</t>
+          <t>2021-10-05 14:35:04.124461</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289697</t>
+          <t>2021-10-05 14:35:04.124463</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289700</t>
+          <t>2021-10-05 14:35:04.124465</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289703</t>
+          <t>2021-10-05 14:35:04.124467</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289706</t>
+          <t>2021-10-05 14:35:04.124470</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289709</t>
+          <t>2021-10-05 14:35:04.124472</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289712</t>
+          <t>2021-10-05 14:35:04.124474</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289715</t>
+          <t>2021-10-05 14:35:04.124476</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289717</t>
+          <t>2021-10-05 14:35:04.124479</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289720</t>
+          <t>2021-10-05 14:35:04.124481</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289723</t>
+          <t>2021-10-05 14:35:04.124483</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289726</t>
+          <t>2021-10-05 14:35:04.124485</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289728</t>
+          <t>2021-10-05 14:35:04.124488</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289731</t>
+          <t>2021-10-05 14:35:04.124490</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289734</t>
+          <t>2021-10-05 14:35:04.124492</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289737</t>
+          <t>2021-10-05 14:35:04.124494</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289740</t>
+          <t>2021-10-05 14:35:04.124496</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289742</t>
+          <t>2021-10-05 14:35:04.124499</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289747</t>
+          <t>2021-10-05 14:35:04.124502</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289750</t>
+          <t>2021-10-05 14:35:04.124505</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289753</t>
+          <t>2021-10-05 14:35:04.124507</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289756</t>
+          <t>2021-10-05 14:35:04.124509</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289758</t>
+          <t>2021-10-05 14:35:04.124511</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289761</t>
+          <t>2021-10-05 14:35:04.124514</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289764</t>
+          <t>2021-10-05 14:35:04.124516</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289767</t>
+          <t>2021-10-05 14:35:04.124518</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289769</t>
+          <t>2021-10-05 14:35:04.124520</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289772</t>
+          <t>2021-10-05 14:35:04.124522</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289775</t>
+          <t>2021-10-05 14:35:04.124525</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289778</t>
+          <t>2021-10-05 14:35:04.124527</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289781</t>
+          <t>2021-10-05 14:35:04.124529</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289783</t>
+          <t>2021-10-05 14:35:04.124532</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289786</t>
+          <t>2021-10-05 14:35:04.124534</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289789</t>
+          <t>2021-10-05 14:35:04.124536</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289792</t>
+          <t>2021-10-05 14:35:04.124538</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289794</t>
+          <t>2021-10-05 14:35:04.124541</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289797</t>
+          <t>2021-10-05 14:35:04.124543</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,91 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 10:52:02.289800</t>
+          <t>2021-10-05 14:35:04.124545</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Neurodegenerative disease - adult onset</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3374</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T04:59:20.497123Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:35:04.120945</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3374/?format=json</t>
         </is>
       </c>
     </row>
